--- a/documents/Query results/Recursive_queries_SIMPLIFIED.xlsx
+++ b/documents/Query results/Recursive_queries_SIMPLIFIED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/homebeach/Desktop/Query tests/Query tests, FINAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D7CC4-F79F-E84A-8278-EF1D0628D608}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF867F40-F552-5249-95A5-323624E6DFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34860" yWindow="12040" windowWidth="28800" windowHeight="24360" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
+    <workbookView xWindow="2320" yWindow="15700" windowWidth="28800" windowHeight="24360" xr2:uid="{2484DFE7-3498-AA40-9D37-7903D1F52BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>Smallest number in resultset</t>
   </si>
@@ -98,9 +98,6 @@
     <t>1000 invoices</t>
   </si>
   <si>
-    <t>339434.83426042175</t>
-  </si>
-  <si>
     <t>Cyclic queries, invoices related to invoice id 100000</t>
   </si>
   <si>
@@ -110,57 +107,27 @@
     <t>Recursive queries, 100 invoices</t>
   </si>
   <si>
-    <t>12.283729075488438</t>
-  </si>
-  <si>
     <t>MariaDB 10.5.6, recursive</t>
   </si>
   <si>
-    <t>39.13681131620204</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 (optimized query)</t>
   </si>
   <si>
     <t>Recursive queries, 1000 invoices</t>
   </si>
   <si>
-    <t>5108.35653121432</t>
-  </si>
-  <si>
-    <t>1009.6819499228458</t>
-  </si>
-  <si>
-    <t>17.198837169994952</t>
-  </si>
-  <si>
-    <t>110.3423762658753</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 (optimized query), indexed (invoiceid, previousinvoice)</t>
   </si>
   <si>
     <t>Neo4J 4.1.3 (indexed, invoiceId, previousinvoice)</t>
   </si>
   <si>
-    <t>24.94794580722028</t>
-  </si>
-  <si>
     <t>MariaDB 10.5.6, recursive, indexed (previousinvoice)</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 (optimized query), indexed (indexid, previousinvoice)</t>
   </si>
   <si>
-    <t>174.16302707520904</t>
-  </si>
-  <si>
-    <t>184368.55260689117</t>
-  </si>
-  <si>
     <t>Neo4J 4.1.3 (indexed, invoiceid, previousinvoice)</t>
   </si>
   <si>
@@ -201,13 +168,43 @@
   </si>
   <si>
     <t>1.32664991614216</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Avg indexed</t>
+  </si>
+  <si>
+    <t>Neo4J 4.1.3 Optimized</t>
+  </si>
+  <si>
+    <t>Standard deviation (rounded)</t>
+  </si>
+  <si>
+    <t>Slower than Neo4J Optimized</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>SD indexed</t>
+  </si>
+  <si>
+    <t>Slower than Neo4J 4.1.3 Optimized</t>
+  </si>
+  <si>
+    <t>Slower than Neo4J 4.1.3 Optimized indexed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,16 +219,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -239,12 +254,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -257,6 +326,53 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8120348-5E05-554A-AFC0-27A9F9C48481}">
-  <dimension ref="A3:G85"/>
+  <dimension ref="A3:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,7 +707,7 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -605,13 +721,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -860,21 +976,21 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -888,13 +1004,13 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1136,41 +1252,41 @@
         <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1474,399 +1590,815 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="3" t="e">
-        <f>(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D63" s="3">
+        <v>50</v>
+      </c>
+      <c r="B63" s="15">
+        <f>(B62-F62)/B62</f>
+        <v>0.82470918572001606</v>
+      </c>
+      <c r="C63" s="15">
+        <f>(C62-G62)/C62</f>
+        <v>-1031</v>
+      </c>
+      <c r="D63" s="16">
+        <f>(D62-F62)/D62</f>
+        <v>-3.5051546391752577</v>
+      </c>
+      <c r="E63" s="15">
+        <f>(E62-G62)/E62</f>
+        <v>-7.1259842519685037</v>
+      </c>
+      <c r="F63" s="17">
+        <f>(F62-F62)/F62</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="15">
+        <f>(G62-G62)/G62</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="13">
+        <f>ROUND(B65,2)</f>
+        <v>12.28</v>
+      </c>
+      <c r="C64" s="14">
+        <f>ROUND(C65,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="14">
+        <f>ROUND(D65,2)</f>
+        <v>17.2</v>
+      </c>
+      <c r="E64">
+        <f>ROUND(E65,2)</f>
+        <v>24.95</v>
+      </c>
+      <c r="F64">
+        <f>ROUND(F65,2)</f>
+        <v>39.14</v>
+      </c>
+      <c r="G64">
+        <f>ROUND(G65,2)</f>
+        <v>110.34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64">
+      <c r="B65" s="2">
+        <v>12.283729075488401</v>
+      </c>
+      <c r="C65">
         <v>0</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>29</v>
+      <c r="D65" s="2">
+        <v>17.198837169994899</v>
+      </c>
+      <c r="E65">
+        <v>24.947945807220201</v>
+      </c>
+      <c r="F65">
+        <v>39.136811316201999</v>
+      </c>
+      <c r="G65">
+        <v>110.342376265875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="A68" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="7">
+        <f>B62</f>
+        <v>2493</v>
+      </c>
+      <c r="C68" s="8">
+        <f>B64</f>
+        <v>12.28</v>
+      </c>
+      <c r="D68" s="9">
+        <f>B63</f>
+        <v>0.82470918572001606</v>
+      </c>
+      <c r="E68" s="18">
+        <f>C62</f>
+        <v>1</v>
+      </c>
+      <c r="F68" s="8">
+        <f>C64</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="9">
+        <f>C63</f>
+        <v>-1031</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E68" t="s">
-        <v>42</v>
-      </c>
-      <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B70" s="7">
+        <f>D62</f>
+        <v>97</v>
+      </c>
+      <c r="C70" s="8">
+        <f>D64</f>
+        <v>17.2</v>
+      </c>
+      <c r="D70" s="9">
+        <f>D63</f>
+        <v>-3.5051546391752577</v>
+      </c>
+      <c r="E70" s="18">
+        <f>E62</f>
+        <v>127</v>
+      </c>
+      <c r="F70" s="8">
+        <f>E64</f>
+        <v>24.95</v>
+      </c>
+      <c r="G70" s="9">
+        <f>E63</f>
+        <v>-7.1259842519685037</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="7">
+        <f>F62</f>
+        <v>437</v>
+      </c>
+      <c r="C72" s="8">
+        <f>F64</f>
+        <v>39.14</v>
+      </c>
+      <c r="D72" s="9">
+        <f>F63</f>
         <v>0</v>
       </c>
-      <c r="B69">
-        <v>27177</v>
-      </c>
-      <c r="C69">
-        <v>7</v>
-      </c>
-      <c r="D69">
-        <v>9</v>
-      </c>
-      <c r="E69">
-        <v>6</v>
-      </c>
-      <c r="F69">
-        <v>11</v>
-      </c>
-      <c r="G69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>43850</v>
-      </c>
-      <c r="C70">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>1960607</v>
-      </c>
-      <c r="E70">
-        <v>1126586</v>
-      </c>
-      <c r="F70">
-        <v>5043</v>
-      </c>
-      <c r="G70">
-        <v>4795</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="2">
-        <v>29220</v>
-      </c>
-      <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72" s="2">
-        <v>644903</v>
-      </c>
-      <c r="E72">
-        <v>566449</v>
-      </c>
-      <c r="F72">
-        <v>2513</v>
-      </c>
-      <c r="G72">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2">
-        <v>31769</v>
-      </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
-      <c r="D73" s="2">
-        <v>652126</v>
-      </c>
-      <c r="E73">
-        <v>694798</v>
-      </c>
-      <c r="F73">
-        <v>2589</v>
-      </c>
-      <c r="G73">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="2">
-        <v>32561</v>
-      </c>
-      <c r="C74">
-        <v>10</v>
-      </c>
-      <c r="D74" s="2">
-        <v>660989</v>
-      </c>
-      <c r="E74">
-        <v>1015540</v>
-      </c>
-      <c r="F74">
-        <v>2621</v>
-      </c>
-      <c r="G74">
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="2">
-        <v>34098</v>
-      </c>
-      <c r="C75">
-        <v>10</v>
-      </c>
-      <c r="D75" s="2">
-        <v>670431</v>
-      </c>
-      <c r="E75">
-        <v>1044853</v>
-      </c>
-      <c r="F75">
-        <v>2623</v>
-      </c>
-      <c r="G75">
-        <v>4412</v>
-      </c>
+      <c r="E72" s="18">
+        <f>G62</f>
+        <v>1032</v>
+      </c>
+      <c r="F72" s="8">
+        <f>G64</f>
+        <v>110.34</v>
+      </c>
+      <c r="G72" s="9">
+        <f>G63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>27177</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+      <c r="E78">
         <v>6</v>
       </c>
-      <c r="B76" s="2">
-        <v>35385</v>
-      </c>
-      <c r="C76">
-        <v>10</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1042328</v>
-      </c>
-      <c r="E76">
-        <v>1075048</v>
-      </c>
-      <c r="F76">
-        <v>4169</v>
-      </c>
-      <c r="G76">
-        <v>4457</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="2">
-        <v>38571</v>
-      </c>
-      <c r="C77">
+      <c r="F78">
         <v>11</v>
       </c>
-      <c r="D77" s="2">
-        <v>1181718</v>
-      </c>
-      <c r="E77">
-        <v>1082356</v>
-      </c>
-      <c r="F77">
-        <v>4315</v>
-      </c>
-      <c r="G77">
-        <v>4558</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="2">
-        <v>39933</v>
-      </c>
-      <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1260381</v>
-      </c>
-      <c r="E78">
-        <v>1097150</v>
-      </c>
-      <c r="F78">
-        <v>4537</v>
-      </c>
       <c r="G78">
-        <v>4591</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="2">
-        <v>43621</v>
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>43850</v>
       </c>
       <c r="C79">
         <v>11</v>
       </c>
-      <c r="D79" s="2">
-        <v>1425756</v>
+      <c r="D79">
+        <v>1960607</v>
       </c>
       <c r="E79">
-        <v>1099478</v>
+        <v>1126586</v>
       </c>
       <c r="F79">
-        <v>4598</v>
+        <v>5043</v>
       </c>
       <c r="G79">
-        <v>4681</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="2">
-        <v>43633</v>
-      </c>
-      <c r="C80">
-        <v>11</v>
-      </c>
-      <c r="D80" s="2">
-        <v>1427974</v>
-      </c>
-      <c r="E80">
-        <v>1109666</v>
-      </c>
-      <c r="F80">
-        <v>4920</v>
-      </c>
-      <c r="G80">
-        <v>4687</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B81" s="2">
-        <v>43634</v>
+        <v>29220</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2">
-        <v>1484584</v>
+        <v>644903</v>
       </c>
       <c r="E81">
-        <v>1117154</v>
+        <v>566449</v>
       </c>
       <c r="F81">
-        <v>5009</v>
+        <v>2513</v>
       </c>
       <c r="G81">
-        <v>4788</v>
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2">
+        <v>31769</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82" s="2">
+        <v>652126</v>
+      </c>
+      <c r="E82">
+        <v>694798</v>
+      </c>
+      <c r="F82">
+        <v>2589</v>
+      </c>
+      <c r="G82">
+        <v>4299</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" s="1">
-        <v>37242</v>
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>32561</v>
       </c>
       <c r="C83">
         <v>10</v>
       </c>
-      <c r="D83" s="1">
-        <v>1045119</v>
-      </c>
-      <c r="E83" s="1">
-        <v>990249</v>
+      <c r="D83" s="2">
+        <v>660989</v>
+      </c>
+      <c r="E83">
+        <v>1015540</v>
       </c>
       <c r="F83">
-        <v>3789</v>
+        <v>2621</v>
       </c>
       <c r="G83">
-        <v>4505</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="3" t="e">
-        <f>(#REF!-#REF!)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B84" s="2">
+        <v>34098</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84" s="2">
+        <v>670431</v>
+      </c>
+      <c r="E84">
+        <v>1044853</v>
+      </c>
+      <c r="F84">
+        <v>2623</v>
+      </c>
+      <c r="G84">
+        <v>4412</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="2">
+        <v>35385</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1042328</v>
+      </c>
+      <c r="E85">
+        <v>1075048</v>
+      </c>
+      <c r="F85">
+        <v>4169</v>
+      </c>
+      <c r="G85">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="2">
+        <v>38571</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1181718</v>
+      </c>
+      <c r="E86">
+        <v>1082356</v>
+      </c>
+      <c r="F86">
+        <v>4315</v>
+      </c>
+      <c r="G86">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="2">
+        <v>39933</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1260381</v>
+      </c>
+      <c r="E87">
+        <v>1097150</v>
+      </c>
+      <c r="F87">
+        <v>4537</v>
+      </c>
+      <c r="G87">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43621</v>
+      </c>
+      <c r="C88">
+        <v>11</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1425756</v>
+      </c>
+      <c r="E88">
+        <v>1099478</v>
+      </c>
+      <c r="F88">
+        <v>4598</v>
+      </c>
+      <c r="G88">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43633</v>
+      </c>
+      <c r="C89">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1427974</v>
+      </c>
+      <c r="E89">
+        <v>1109666</v>
+      </c>
+      <c r="F89">
+        <v>4920</v>
+      </c>
+      <c r="G89">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43634</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1484584</v>
+      </c>
+      <c r="E90">
+        <v>1117154</v>
+      </c>
+      <c r="F90">
+        <v>5009</v>
+      </c>
+      <c r="G90">
+        <v>4788</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="1">
+        <v>37242</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1045119</v>
+      </c>
+      <c r="E92" s="1">
+        <v>990249</v>
+      </c>
+      <c r="F92">
+        <v>3789</v>
+      </c>
+      <c r="G92">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" s="15">
+        <f>(B92-F92)/B92</f>
+        <v>0.89826002899951662</v>
+      </c>
+      <c r="C93" s="15">
+        <f>(C92-G92)/C92</f>
+        <v>-449.5</v>
+      </c>
+      <c r="D93" s="16">
+        <f>(D92-F92)/D92</f>
+        <v>0.99637457552680608</v>
+      </c>
+      <c r="E93" s="15">
+        <f>(E92-G92)/E92</f>
+        <v>0.99545063918267018</v>
+      </c>
+      <c r="F93" s="17">
+        <f>(F92-F92)/F92</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="15">
+        <f>(G92-G92)/G92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="13">
+        <f>ROUND(B95,2)</f>
+        <v>5108.3599999999997</v>
+      </c>
+      <c r="C94" s="14">
+        <f>ROUND(C95,2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="14">
+        <f>ROUND(D95,2)</f>
+        <v>339434.83</v>
+      </c>
+      <c r="E94">
+        <f>ROUND(E95,2)</f>
+        <v>184368.55</v>
+      </c>
+      <c r="F94">
+        <f>ROUND(F95,2)</f>
+        <v>1009.68</v>
+      </c>
+      <c r="G94">
+        <f>ROUND(G95,2)</f>
+        <v>174.16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C85" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" t="s">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
+      <c r="B95" s="2">
+        <v>5108.3565312143201</v>
+      </c>
+      <c r="C95">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2">
+        <v>339434.83426042099</v>
+      </c>
+      <c r="E95">
+        <v>184368.552606891</v>
+      </c>
+      <c r="F95">
+        <v>1009.68194992284</v>
+      </c>
+      <c r="G95">
+        <v>174.16302707520899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="20">
+        <f>B92</f>
+        <v>37242</v>
+      </c>
+      <c r="C99" s="8">
+        <f>B94</f>
+        <v>5108.3599999999997</v>
+      </c>
+      <c r="D99" s="9">
+        <f>B93</f>
+        <v>0.89826002899951662</v>
+      </c>
+      <c r="E99" s="18">
+        <f>C92</f>
+        <v>10</v>
+      </c>
+      <c r="F99" s="8">
+        <f>C94</f>
+        <v>0.5</v>
+      </c>
+      <c r="G99" s="9">
+        <f>C93</f>
+        <v>-449.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="20">
+        <f>D92</f>
+        <v>1045119</v>
+      </c>
+      <c r="C101" s="8">
+        <f>D94</f>
+        <v>339434.83</v>
+      </c>
+      <c r="D101" s="9">
+        <f>D93</f>
+        <v>0.99637457552680608</v>
+      </c>
+      <c r="E101" s="18">
+        <f>E92</f>
+        <v>990249</v>
+      </c>
+      <c r="F101" s="8">
+        <f>E94</f>
+        <v>184368.55</v>
+      </c>
+      <c r="G101" s="9">
+        <f>E93</f>
+        <v>0.99545063918267018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" s="20">
+        <f>F92</f>
+        <v>3789</v>
+      </c>
+      <c r="C103" s="8">
+        <f>F94</f>
+        <v>1009.68</v>
+      </c>
+      <c r="D103" s="9">
+        <f>F93</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="18">
+        <f>G92</f>
+        <v>4505</v>
+      </c>
+      <c r="F103" s="8">
+        <f>G94</f>
+        <v>174.16</v>
+      </c>
+      <c r="G103" s="9">
+        <f>G93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>